--- a/DOCUMENTATION/stats.xlsx
+++ b/DOCUMENTATION/stats.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Streaming\Project PZTITT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Christophe\Documents\GitHub\TBot\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EB7B1F-BD22-440D-85B7-03532DEB8AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="669"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="669" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -22,10 +23,21 @@
     <sheet name="FRAMEWORK UPGRADE" sheetId="8" r:id="rId8"/>
     <sheet name="FRAMEWORK MON SURVIVANT" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -452,9 +464,6 @@
   </si>
   <si>
     <t>Citron</t>
-  </si>
-  <si>
-    <t>Mange</t>
   </si>
   <si>
     <t>Orange</t>
@@ -1801,11 +1810,14 @@
   <si>
     <t>1 UPGRADE ARME = +10% dans la catégorie BUTIN, +10% dans la catégorie DEATH, -10% dans la catégorie SANS RIEN, -10% dans la catégorie BLESSE</t>
   </si>
+  <si>
+    <t>Mangue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2068,7 +2080,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2137,7 +2149,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 11" descr="Paddle.png"/>
+        <xdr:cNvPr id="12" name="Image 11" descr="Paddle.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2192,7 +2210,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 14" descr="FieldHockeyStick.png"/>
+        <xdr:cNvPr id="15" name="Image 14" descr="FieldHockeyStick.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2247,7 +2271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 15" descr="HockeyStick.png"/>
+        <xdr:cNvPr id="16" name="Image 15" descr="HockeyStick.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2302,7 +2332,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 18" descr="Golfclub.png"/>
+        <xdr:cNvPr id="19" name="Image 18" descr="Golfclub.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2357,7 +2393,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 26" descr="LacrosseStick.png"/>
+        <xdr:cNvPr id="27" name="Image 26" descr="LacrosseStick.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2412,7 +2454,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 27" descr="Poolcue.png"/>
+        <xdr:cNvPr id="28" name="Image 27" descr="Poolcue.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2467,7 +2515,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 28" descr="Plank.png"/>
+        <xdr:cNvPr id="29" name="Image 28" descr="Plank.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2522,7 +2576,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 29" descr="PlankNail.png"/>
+        <xdr:cNvPr id="30" name="Image 29" descr="PlankNail.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2577,7 +2637,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 30" descr="TennisRacket.png"/>
+        <xdr:cNvPr id="31" name="Image 30" descr="TennisRacket.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2632,7 +2698,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 32" descr="Pipe.png"/>
+        <xdr:cNvPr id="33" name="Image 32" descr="Pipe.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2687,7 +2759,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 33" descr="MetalTube.png"/>
+        <xdr:cNvPr id="34" name="Image 33" descr="MetalTube.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2742,7 +2820,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 37" descr="KnifeButter.png"/>
+        <xdr:cNvPr id="38" name="Image 37" descr="KnifeButter.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2797,7 +2881,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Image 38" descr="KnifeChopping.png"/>
+        <xdr:cNvPr id="39" name="Image 38" descr="KnifeChopping.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2852,7 +2942,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Image 39" descr="Cleaver.png"/>
+        <xdr:cNvPr id="40" name="Image 39" descr="Cleaver.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2907,7 +3003,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 40" descr="KnifeFlint.png"/>
+        <xdr:cNvPr id="41" name="Image 40" descr="KnifeFlint.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2962,7 +3064,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 41" descr="SpearStick.png"/>
+        <xdr:cNvPr id="42" name="Image 41" descr="SpearStick.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3017,7 +3125,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 52" descr="HandScythe.png"/>
+        <xdr:cNvPr id="53" name="Image 52" descr="HandScythe.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3067,7 +3181,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Image 46" descr="M36 Revolver"/>
+        <xdr:cNvPr id="47" name="Image 46" descr="M36 Revolver">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3122,7 +3242,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 20" descr="GardeningFork.png"/>
+        <xdr:cNvPr id="21" name="Image 20" descr="GardeningFork.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3172,7 +3298,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 21" descr="Cleaver.png"/>
+        <xdr:cNvPr id="22" name="Image 21" descr="Cleaver.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3222,7 +3354,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 22" descr="KnifeFlint.png"/>
+        <xdr:cNvPr id="23" name="Image 22" descr="KnifeFlint.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3272,7 +3410,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 23" descr="HandScythe.png"/>
+        <xdr:cNvPr id="24" name="Image 23" descr="HandScythe.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3322,7 +3466,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 24" descr="KnifeChopping.png"/>
+        <xdr:cNvPr id="25" name="Image 24" descr="KnifeChopping.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3377,7 +3527,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 25" descr="Screwdriver.png"/>
+        <xdr:cNvPr id="26" name="Image 25" descr="Screwdriver.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3427,7 +3583,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 31" descr="ClubHammer.png"/>
+        <xdr:cNvPr id="32" name="Image 31" descr="ClubHammer.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3482,7 +3644,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 34" descr="Pitchfork.png"/>
+        <xdr:cNvPr id="35" name="Image 34" descr="Pitchfork.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3537,7 +3705,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 35" descr="Pushbroom.png"/>
+        <xdr:cNvPr id="36" name="Image 35" descr="Pushbroom.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3592,7 +3766,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 36" descr="SnowShovel.png"/>
+        <xdr:cNvPr id="37" name="Image 36" descr="SnowShovel.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3647,7 +3827,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Image 42" descr="Pan.png"/>
+        <xdr:cNvPr id="43" name="Image 42" descr="Pan.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3702,7 +3888,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 43" descr="Griddle.png"/>
+        <xdr:cNvPr id="44" name="Image 43" descr="Griddle.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3757,7 +3949,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 44" descr="RollingPin.png"/>
+        <xdr:cNvPr id="45" name="Image 44" descr="RollingPin.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3812,7 +4010,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 45" descr="SaucepanEmpty.png"/>
+        <xdr:cNvPr id="46" name="Image 45" descr="SaucepanEmpty.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3867,7 +4071,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Image 47" descr="IcePick.png"/>
+        <xdr:cNvPr id="48" name="Image 47" descr="IcePick.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3922,7 +4132,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 48" descr="Scalpel.png"/>
+        <xdr:cNvPr id="49" name="Image 48" descr="Scalpel.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3972,7 +4188,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 49" descr="IcePick.png"/>
+        <xdr:cNvPr id="50" name="Image 49" descr="IcePick.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4022,7 +4244,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 50" descr="AxeStone.png"/>
+        <xdr:cNvPr id="51" name="Image 50" descr="AxeStone.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4077,7 +4305,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 51" descr="Adhesive Bandages"/>
+        <xdr:cNvPr id="52" name="Image 51" descr="Adhesive Bandages">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4132,7 +4366,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Image 53" descr="Cotton Balls Doused in Alcohol"/>
+        <xdr:cNvPr id="54" name="Image 53" descr="Cotton Balls Doused in Alcohol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4187,7 +4427,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Image 54" descr="Tissue"/>
+        <xdr:cNvPr id="55" name="Image 54" descr="Tissue">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4242,7 +4488,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Image 57" descr="Splint"/>
+        <xdr:cNvPr id="58" name="Image 57" descr="Splint">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4297,7 +4549,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Image 58" descr="Ripped Sheets"/>
+        <xdr:cNvPr id="59" name="Image 58" descr="Ripped Sheets">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4352,7 +4610,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Image 59" descr="Alcohol Wipes"/>
+        <xdr:cNvPr id="60" name="Image 59" descr="Alcohol Wipes">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4407,7 +4671,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Image 64" descr="Tweezers"/>
+        <xdr:cNvPr id="65" name="Image 64" descr="Tweezers">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4462,7 +4732,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Image 70" descr="Bath Towel"/>
+        <xdr:cNvPr id="71" name="Image 70" descr="Bath Towel">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4517,7 +4793,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Image 72" descr="CannedCarrots.png"/>
+        <xdr:cNvPr id="73" name="Image 72" descr="CannedCarrots.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4572,7 +4854,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Image 73" descr="CannedChili.png"/>
+        <xdr:cNvPr id="74" name="Image 73" descr="CannedChili.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4627,7 +4915,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Image 74" descr="CannedCorn.png"/>
+        <xdr:cNvPr id="75" name="Image 74" descr="CannedCorn.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4682,7 +4976,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Image 76" descr="CannedFruitCocktail.png"/>
+        <xdr:cNvPr id="77" name="Image 76" descr="CannedFruitCocktail.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4737,7 +5037,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Image 77" descr="CannedMushroomSoup.png"/>
+        <xdr:cNvPr id="78" name="Image 77" descr="CannedMushroomSoup.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4792,7 +5098,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Image 78" descr="CannedPeaches.png"/>
+        <xdr:cNvPr id="79" name="Image 78" descr="CannedPeaches.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4847,7 +5159,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Image 79" descr="CannedPineapple.png"/>
+        <xdr:cNvPr id="80" name="Image 79" descr="CannedPineapple.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4902,7 +5220,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Image 80" descr="CannedPeas.png"/>
+        <xdr:cNvPr id="81" name="Image 80" descr="CannedPeas.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4957,7 +5281,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Image 82" descr="CannedSardines.png"/>
+        <xdr:cNvPr id="83" name="Image 82" descr="CannedSardines.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5012,7 +5342,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Image 85" descr="CannedTomato.png"/>
+        <xdr:cNvPr id="86" name="Image 85" descr="CannedTomato.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5067,7 +5403,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Image 88" descr="MuffinGeneric.png"/>
+        <xdr:cNvPr id="89" name="Image 88" descr="MuffinGeneric.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5122,7 +5464,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Image 68" descr="Hot Sauce"/>
+        <xdr:cNvPr id="69" name="Image 68" descr="Hot Sauce">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5177,7 +5525,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Image 69" descr="Ketchup.png"/>
+        <xdr:cNvPr id="70" name="Image 69" descr="Ketchup.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5232,7 +5586,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Image 96" descr="Mustard.png"/>
+        <xdr:cNvPr id="97" name="Image 96" descr="Mustard.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5287,7 +5647,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Image 98" descr="Pepper.png"/>
+        <xdr:cNvPr id="99" name="Image 98" descr="Pepper.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5342,7 +5708,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Image 101" descr="Soy sauce"/>
+        <xdr:cNvPr id="102" name="Image 101" descr="Soy sauce">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5397,7 +5769,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Image 103" descr="Vegetable Oil"/>
+        <xdr:cNvPr id="104" name="Image 103" descr="Vegetable Oil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5452,7 +5830,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Image 105" descr="Water Bottle"/>
+        <xdr:cNvPr id="106" name="Image 105" descr="Water Bottle">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5507,7 +5891,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Image 107" descr="JuiceBox.png"/>
+        <xdr:cNvPr id="108" name="Image 107" descr="JuiceBox.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5562,7 +5952,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Image 110" descr="Apple.png"/>
+        <xdr:cNvPr id="111" name="Image 110" descr="Apple.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5617,7 +6013,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Image 112" descr="Lemon.png"/>
+        <xdr:cNvPr id="113" name="Image 112" descr="Lemon.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5672,7 +6074,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Image 114" descr="Orange.png"/>
+        <xdr:cNvPr id="115" name="Image 114" descr="Orange.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5727,7 +6135,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="116" name="Image 115" descr="Peach.png"/>
+        <xdr:cNvPr id="116" name="Image 115" descr="Peach.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5782,7 +6196,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="117" name="Image 116" descr="Pear.png"/>
+        <xdr:cNvPr id="117" name="Image 116" descr="Pear.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5837,7 +6257,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="Image 124" descr="Peppermint.png"/>
+        <xdr:cNvPr id="125" name="Image 124" descr="Peppermint.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5892,7 +6318,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="126" name="Image 125" descr="CookieChocolateChip.png"/>
+        <xdr:cNvPr id="126" name="Image 125" descr="CookieChocolateChip.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5947,7 +6379,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="127" name="Image 126" descr="Icecream.png"/>
+        <xdr:cNvPr id="127" name="Image 126" descr="Icecream.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6002,7 +6440,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="Image 137" descr="CarBattery.png"/>
+        <xdr:cNvPr id="138" name="Image 137" descr="CarBattery.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6057,7 +6501,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="Image 140" descr="EngineDoor.png"/>
+        <xdr:cNvPr id="141" name="Image 140" descr="EngineDoor.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6112,7 +6562,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="143" name="Image 142" descr="EngineDoor.png"/>
+        <xdr:cNvPr id="143" name="Image 142" descr="EngineDoor.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6167,7 +6623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="144" name="Image 143" descr="EngineDoor.png"/>
+        <xdr:cNvPr id="144" name="Image 143" descr="EngineDoor.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6222,7 +6684,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="Image 146" descr="Old Brake"/>
+        <xdr:cNvPr id="147" name="Image 146" descr="Old Brake">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6277,7 +6745,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="Image 147" descr="Old Brake"/>
+        <xdr:cNvPr id="148" name="Image 147" descr="Old Brake">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6332,7 +6806,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="Image 148" descr="Old Brake"/>
+        <xdr:cNvPr id="149" name="Image 148" descr="Old Brake">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6387,7 +6867,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="150" name="Image 149" descr="Old Brake"/>
+        <xdr:cNvPr id="150" name="Image 149" descr="Old Brake">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6442,7 +6928,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="151" name="Image 150" descr="Old Brake"/>
+        <xdr:cNvPr id="151" name="Image 150" descr="Old Brake">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6497,7 +6989,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="156" name="Image 155" descr="Regular Suspension"/>
+        <xdr:cNvPr id="156" name="Image 155" descr="Regular Suspension">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6552,7 +7050,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="157" name="Image 156" descr="Regular Suspension"/>
+        <xdr:cNvPr id="157" name="Image 156" descr="Regular Suspension">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6607,7 +7111,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Image 97" descr="Valu-Tire"/>
+        <xdr:cNvPr id="98" name="Image 97" descr="Valu-Tire">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6662,7 +7172,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Image 99" descr="Valu-Tire"/>
+        <xdr:cNvPr id="100" name="Image 99" descr="Valu-Tire">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6717,7 +7233,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Image 100" descr="Valu-Tire"/>
+        <xdr:cNvPr id="101" name="Image 100" descr="Valu-Tire">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6772,7 +7294,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Image 102" descr="Valu-Tire"/>
+        <xdr:cNvPr id="103" name="Image 102" descr="Valu-Tire">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6827,7 +7355,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Image 104" descr="Valu-Tire"/>
+        <xdr:cNvPr id="105" name="Image 104" descr="Valu-Tire">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6882,7 +7416,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="Image 113" descr="Windshield"/>
+        <xdr:cNvPr id="114" name="Image 113" descr="Windshield">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6937,7 +7477,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="121" name="Image 120" descr="Tire Pump"/>
+        <xdr:cNvPr id="121" name="Image 120" descr="Tire Pump">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6992,7 +7538,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="Image 123" descr="Spare Engine Parts"/>
+        <xdr:cNvPr id="124" name="Image 123" descr="Spare Engine Parts">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7052,7 +7604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="AxeHand.png"/>
+        <xdr:cNvPr id="3" name="Image 2" descr="AxeHand.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7107,7 +7665,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5" descr="WoodAxe.png"/>
+        <xdr:cNvPr id="6" name="Image 5" descr="WoodAxe.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7162,7 +7726,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 19" descr="NightStick.png"/>
+        <xdr:cNvPr id="20" name="Image 19" descr="NightStick.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7217,7 +7787,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 21" descr="HuntingKnife.png"/>
+        <xdr:cNvPr id="22" name="Image 21" descr="HuntingKnife.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7272,7 +7848,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 27" descr="M9 Pistol"/>
+        <xdr:cNvPr id="28" name="Image 27" descr="M9 Pistol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7327,7 +7909,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 34" descr="LeverActionRifle.png"/>
+        <xdr:cNvPr id="35" name="Image 34" descr="LeverActionRifle.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7377,7 +7965,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 37" descr="D-E Pistol"/>
+        <xdr:cNvPr id="38" name="Image 37" descr="D-E Pistol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7427,7 +8021,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 8" descr="AxeStone.png"/>
+        <xdr:cNvPr id="9" name="Image 8" descr="AxeStone.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7482,7 +8082,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 9" descr="Shovel.png"/>
+        <xdr:cNvPr id="10" name="Image 9" descr="Shovel.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7537,7 +8143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 10" descr="Shovel2.png"/>
+        <xdr:cNvPr id="11" name="Image 10" descr="Shovel2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7592,7 +8204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 11" descr="FishingRod.png"/>
+        <xdr:cNvPr id="12" name="Image 11" descr="FishingRod.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7647,7 +8265,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 12" descr="BallPeenHammer.png"/>
+        <xdr:cNvPr id="13" name="Image 12" descr="BallPeenHammer.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7702,7 +8326,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 14" descr="Hammer.png"/>
+        <xdr:cNvPr id="15" name="Image 14" descr="Hammer.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7752,7 +8382,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 15" descr="Wrench.png"/>
+        <xdr:cNvPr id="16" name="Image 15" descr="Wrench.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7802,7 +8438,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 16" descr="PipeWrench.png"/>
+        <xdr:cNvPr id="17" name="Image 16" descr="PipeWrench.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7852,7 +8494,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 18" descr="Crowbar.png"/>
+        <xdr:cNvPr id="19" name="Image 18" descr="Crowbar.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7907,7 +8555,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 23" descr="Thumbnail for version as of 04:06, 1 September 2018"/>
+        <xdr:cNvPr id="24" name="Image 23" descr="Thumbnail for version as of 04:06, 1 September 2018">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7957,7 +8611,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 24" descr="Sawed-off JS-2000 Shotgun"/>
+        <xdr:cNvPr id="25" name="Image 24" descr="Sawed-off JS-2000 Shotgun">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8007,7 +8667,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 25" descr="Bandage"/>
+        <xdr:cNvPr id="26" name="Image 25" descr="Bandage">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8057,7 +8723,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 26" descr="Bottle of Disinfectant"/>
+        <xdr:cNvPr id="27" name="Image 26" descr="Bottle of Disinfectant">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8107,7 +8779,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 28" descr="Suture Needle Holder"/>
+        <xdr:cNvPr id="29" name="Image 28" descr="Suture Needle Holder">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8157,7 +8835,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 29" descr="Antidepressants"/>
+        <xdr:cNvPr id="30" name="Image 29" descr="Antidepressants">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8207,7 +8891,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 30" descr="Beta Blockers"/>
+        <xdr:cNvPr id="31" name="Image 30" descr="Beta Blockers">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8257,7 +8947,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 31" descr="Painkillers"/>
+        <xdr:cNvPr id="32" name="Image 31" descr="Painkillers">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8307,7 +9003,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 32" descr="Sleeping Tablets"/>
+        <xdr:cNvPr id="33" name="Image 32" descr="Sleeping Tablets">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8357,7 +9059,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 33" descr="CannedPotato2.png"/>
+        <xdr:cNvPr id="34" name="Image 33" descr="CannedPotato2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8407,7 +9115,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 35" descr="Tuna.png"/>
+        <xdr:cNvPr id="36" name="Image 35" descr="Tuna.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8457,7 +9171,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 36" descr="Burrito"/>
+        <xdr:cNvPr id="37" name="Image 36" descr="Burrito">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8507,7 +9227,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Image 38" descr="CakeSlice.png"/>
+        <xdr:cNvPr id="39" name="Image 38" descr="CakeSlice.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8557,7 +9283,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Image 39" descr="SugarBrown.png"/>
+        <xdr:cNvPr id="40" name="Image 39" descr="SugarBrown.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8607,7 +9339,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 40" descr="Marinarai.png"/>
+        <xdr:cNvPr id="41" name="Image 40" descr="Marinarai.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8657,7 +9395,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 41" descr="Olive Oil"/>
+        <xdr:cNvPr id="42" name="Image 41" descr="Olive Oil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8707,7 +9451,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Image 42" descr="Rice Vinegar"/>
+        <xdr:cNvPr id="43" name="Image 42" descr="Rice Vinegar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8757,7 +9507,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 43" descr="Salt.png"/>
+        <xdr:cNvPr id="44" name="Image 43" descr="Salt.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8807,7 +9563,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 44" descr="Sugar.png"/>
+        <xdr:cNvPr id="45" name="Image 44" descr="Sugar.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8857,7 +9619,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 45" descr="Pop2.png"/>
+        <xdr:cNvPr id="46" name="Image 45" descr="Pop2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8907,7 +9675,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Image 46" descr="Banana.png"/>
+        <xdr:cNvPr id="47" name="Image 46" descr="Banana.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8957,7 +9731,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Image 47" descr="Crisps3.png"/>
+        <xdr:cNvPr id="48" name="Image 47" descr="Crisps3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9007,7 +9787,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 48" descr="Chocolate.png"/>
+        <xdr:cNvPr id="49" name="Image 48" descr="Chocolate.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9057,7 +9843,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 49" descr="Butter.png"/>
+        <xdr:cNvPr id="50" name="Image 49" descr="Butter.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9107,7 +9899,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 50" descr="CocoaPowder.png"/>
+        <xdr:cNvPr id="51" name="Image 50" descr="CocoaPowder.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9157,7 +9955,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 51" descr="InstantCoffee.png"/>
+        <xdr:cNvPr id="52" name="Image 51" descr="InstantCoffee.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9207,7 +10011,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 52" descr="JamFruit.png"/>
+        <xdr:cNvPr id="53" name="Image 52" descr="JamFruit.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9257,7 +10067,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Image 53" descr="Teabag.png"/>
+        <xdr:cNvPr id="54" name="Image 53" descr="Teabag.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9307,7 +10123,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Image 54" descr="PeanutButter.png"/>
+        <xdr:cNvPr id="55" name="Image 54" descr="PeanutButter.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9357,7 +10179,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Image 55" descr="Honeybottle.png"/>
+        <xdr:cNvPr id="56" name="Image 55" descr="Honeybottle.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9407,7 +10235,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Image 56" descr="Dogfood.png"/>
+        <xdr:cNvPr id="57" name="Image 56" descr="Dogfood.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9457,7 +10291,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Image 57" descr="CarBattery.png"/>
+        <xdr:cNvPr id="58" name="Image 57" descr="CarBattery.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9507,7 +10347,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Image 59" descr="EngineDoor.png"/>
+        <xdr:cNvPr id="60" name="Image 59" descr="EngineDoor.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9557,7 +10403,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Image 60" descr="EngineDoor.png"/>
+        <xdr:cNvPr id="61" name="Image 60" descr="EngineDoor.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9607,7 +10459,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Image 62" descr="Old Brake"/>
+        <xdr:cNvPr id="63" name="Image 62" descr="Old Brake">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9657,7 +10515,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Image 63" descr="Old Brake"/>
+        <xdr:cNvPr id="64" name="Image 63" descr="Old Brake">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9707,7 +10571,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Image 66" descr="Regular Suspension"/>
+        <xdr:cNvPr id="67" name="Image 66" descr="Regular Suspension">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9757,7 +10627,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Image 67" descr="Regular Suspension"/>
+        <xdr:cNvPr id="68" name="Image 67" descr="Regular Suspension">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9807,7 +10683,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Image 70" descr="Valu-Tire"/>
+        <xdr:cNvPr id="71" name="Image 70" descr="Valu-Tire">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9857,7 +10739,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Image 71" descr="Valu-Tire"/>
+        <xdr:cNvPr id="72" name="Image 71" descr="Valu-Tire">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9907,7 +10795,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Image 74" descr="Windshield"/>
+        <xdr:cNvPr id="75" name="Image 74" descr="Windshield">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9957,7 +10851,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Image 77" descr="Gas Can"/>
+        <xdr:cNvPr id="78" name="Image 77" descr="Gas Can">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10012,7 +10912,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Image 78" descr="Jack"/>
+        <xdr:cNvPr id="79" name="Image 78" descr="Jack">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10072,7 +10978,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Axe.png"/>
+        <xdr:cNvPr id="2" name="Image 1" descr="Axe.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10127,7 +11039,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="PickAxe.png"/>
+        <xdr:cNvPr id="4" name="Image 3" descr="PickAxe.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10182,7 +11100,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5" descr="BaseballBat.png"/>
+        <xdr:cNvPr id="6" name="Image 5" descr="BaseballBat.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10237,7 +11161,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 8" descr="Machete.png"/>
+        <xdr:cNvPr id="9" name="Image 8" descr="Machete.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10292,7 +11222,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 12" descr="JS-2000 Shotgun"/>
+        <xdr:cNvPr id="13" name="Image 12" descr="JS-2000 Shotgun">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10347,7 +11283,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 14" descr="AssaultRifle2.png"/>
+        <xdr:cNvPr id="15" name="Image 14" descr="AssaultRifle2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10402,7 +11344,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 15" descr="AssaultRifle.png"/>
+        <xdr:cNvPr id="16" name="Image 15" descr="AssaultRifle.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10457,7 +11405,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 17" descr="RifleHunting.png"/>
+        <xdr:cNvPr id="18" name="Image 17" descr="RifleHunting.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10512,7 +11466,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 11" descr="Sledgehamer.png"/>
+        <xdr:cNvPr id="12" name="Image 11" descr="Sledgehamer.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10567,7 +11527,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 19" descr="WoodAxe.png"/>
+        <xdr:cNvPr id="20" name="Image 19" descr="WoodAxe.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10617,7 +11583,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 20" descr="Crowbar.png"/>
+        <xdr:cNvPr id="21" name="Image 20" descr="Crowbar.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10667,7 +11639,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 21" descr="Antibiotics"/>
+        <xdr:cNvPr id="22" name="Image 21" descr="Antibiotics">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10717,7 +11695,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 22" descr="Sterilized Bandage"/>
+        <xdr:cNvPr id="23" name="Image 22" descr="Sterilized Bandage">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10767,7 +11751,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 23" descr="Suture Needle"/>
+        <xdr:cNvPr id="24" name="Image 23" descr="Suture Needle">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10817,7 +11807,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 24" descr="Vitamins"/>
+        <xdr:cNvPr id="25" name="Image 24" descr="Vitamins">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10867,7 +11863,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 16" descr="Beans.png"/>
+        <xdr:cNvPr id="17" name="Image 16" descr="Beans.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10917,7 +11919,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 18" descr="CannedCornedBeef.png"/>
+        <xdr:cNvPr id="19" name="Image 18" descr="CannedCornedBeef.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10967,7 +11975,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 25" descr="Soup.png"/>
+        <xdr:cNvPr id="26" name="Image 25" descr="Soup.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11017,7 +12031,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 26" descr="CannedBolognese.png"/>
+        <xdr:cNvPr id="27" name="Image 26" descr="CannedBolognese.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11067,7 +12087,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 27" descr="Burger"/>
+        <xdr:cNvPr id="28" name="Image 27" descr="Burger">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11117,7 +12143,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 28" descr="Taco"/>
+        <xdr:cNvPr id="29" name="Image 28" descr="Taco">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11167,7 +12199,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 29" descr="Maple Syrup"/>
+        <xdr:cNvPr id="30" name="Image 29" descr="Maple Syrup">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11217,7 +12255,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 30" descr="Mayonnaise"/>
+        <xdr:cNvPr id="31" name="Image 30" descr="Mayonnaise">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11267,7 +12311,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 31" descr="Wasabi"/>
+        <xdr:cNvPr id="32" name="Image 31" descr="Wasabi">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11317,7 +12367,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 32" descr="Milk.png"/>
+        <xdr:cNvPr id="33" name="Image 32" descr="Milk.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11367,7 +12423,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 33" descr="Pop4.png"/>
+        <xdr:cNvPr id="34" name="Image 33" descr="Pop4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11417,7 +12479,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 34" descr="Mango.png"/>
+        <xdr:cNvPr id="35" name="Image 34" descr="Mango.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11467,7 +12535,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 35" descr="Pineapple.png"/>
+        <xdr:cNvPr id="36" name="Image 35" descr="Pineapple.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11517,7 +12591,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 36" descr="SpagettiRaw.png"/>
+        <xdr:cNvPr id="37" name="Image 36" descr="SpagettiRaw.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11567,7 +12647,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 37" descr="RiceRaw.png"/>
+        <xdr:cNvPr id="38" name="Image 37" descr="RiceRaw.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11617,7 +12703,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Image 38" descr="OatsRaw.png"/>
+        <xdr:cNvPr id="39" name="Image 38" descr="OatsRaw.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11667,7 +12759,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Image 39" descr="Cereal.png"/>
+        <xdr:cNvPr id="40" name="Image 39" descr="Cereal.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11717,7 +12815,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 40" descr="Guacamole.png"/>
+        <xdr:cNvPr id="41" name="Image 40" descr="Guacamole.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11767,7 +12871,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 41" descr="DriedBlackBeans.png"/>
+        <xdr:cNvPr id="42" name="Image 41" descr="DriedBlackBeans.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11817,7 +12927,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Image 42" descr="CarBattery.png"/>
+        <xdr:cNvPr id="43" name="Image 42" descr="CarBattery.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11867,7 +12983,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 43" descr="EngineDoor.png"/>
+        <xdr:cNvPr id="44" name="Image 43" descr="EngineDoor.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11917,7 +13039,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 44" descr="Old Brake"/>
+        <xdr:cNvPr id="45" name="Image 44" descr="Old Brake">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11967,7 +13095,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 45" descr="Old Brake"/>
+        <xdr:cNvPr id="46" name="Image 45" descr="Old Brake">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12017,7 +13151,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Image 46" descr="Regular Suspension"/>
+        <xdr:cNvPr id="47" name="Image 46" descr="Regular Suspension">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12067,7 +13207,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Image 47" descr="Regular Suspension"/>
+        <xdr:cNvPr id="48" name="Image 47" descr="Regular Suspension">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12117,7 +13263,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 48" descr="Valu-Tire"/>
+        <xdr:cNvPr id="49" name="Image 48" descr="Valu-Tire">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12167,7 +13319,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 49" descr="Valu-Tire"/>
+        <xdr:cNvPr id="50" name="Image 49" descr="Valu-Tire">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12217,7 +13375,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 50" descr="Windshield"/>
+        <xdr:cNvPr id="51" name="Image 50" descr="Windshield">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12267,7 +13431,13 @@
     <xdr:ext cx="295275" cy="295275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 51" descr="Car Battery Charger"/>
+        <xdr:cNvPr id="52" name="Image 51" descr="Car Battery Charger">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12327,7 +13497,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Flèche vers le bas 16"/>
+        <xdr:cNvPr id="17" name="Flèche vers le bas 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12381,7 +13557,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Flèche vers le bas 17"/>
+        <xdr:cNvPr id="18" name="Flèche vers le bas 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12435,7 +13617,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Flèche vers le bas 20"/>
+        <xdr:cNvPr id="21" name="Flèche vers le bas 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12489,7 +13677,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Flèche vers le bas 21"/>
+        <xdr:cNvPr id="22" name="Flèche vers le bas 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12543,7 +13737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Flèche vers le bas 27"/>
+        <xdr:cNvPr id="28" name="Flèche vers le bas 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12597,7 +13797,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Flèche vers le bas 28"/>
+        <xdr:cNvPr id="29" name="Flèche vers le bas 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12651,7 +13857,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12715,7 +13927,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="ZoneTexte 32"/>
+        <xdr:cNvPr id="33" name="ZoneTexte 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12779,7 +13997,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="ZoneTexte 33"/>
+        <xdr:cNvPr id="34" name="ZoneTexte 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12843,7 +14067,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="ZoneTexte 34"/>
+        <xdr:cNvPr id="35" name="ZoneTexte 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12907,7 +14137,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="ZoneTexte 35"/>
+        <xdr:cNvPr id="36" name="ZoneTexte 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12971,7 +14207,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Flèche vers le bas 41"/>
+        <xdr:cNvPr id="42" name="Flèche vers le bas 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13025,7 +14267,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="ZoneTexte 42"/>
+        <xdr:cNvPr id="43" name="ZoneTexte 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13094,7 +14342,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Flèche vers le bas 1"/>
+        <xdr:cNvPr id="2" name="Flèche vers le bas 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13151,7 +14405,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flèche vers le bas 2"/>
+        <xdr:cNvPr id="3" name="Flèche vers le bas 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13208,7 +14468,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvPr id="4" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13272,7 +14538,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Flèche vers le bas 4"/>
+        <xdr:cNvPr id="5" name="Flèche vers le bas 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13329,7 +14601,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvPr id="6" name="ZoneTexte 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13393,7 +14671,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Flèche vers le bas 6"/>
+        <xdr:cNvPr id="7" name="Flèche vers le bas 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13450,7 +14734,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvPr id="8" name="ZoneTexte 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13514,7 +14804,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Flèche vers le bas 8"/>
+        <xdr:cNvPr id="9" name="Flèche vers le bas 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13571,7 +14867,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="ZoneTexte 9"/>
+        <xdr:cNvPr id="10" name="ZoneTexte 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13635,7 +14937,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Flèche vers le bas 11"/>
+        <xdr:cNvPr id="12" name="Flèche vers le bas 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13692,7 +15000,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Flèche vers le bas 12"/>
+        <xdr:cNvPr id="13" name="Flèche vers le bas 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13749,7 +15063,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="ZoneTexte 13"/>
+        <xdr:cNvPr id="14" name="ZoneTexte 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13813,7 +15133,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Flèche vers le bas 14"/>
+        <xdr:cNvPr id="15" name="Flèche vers le bas 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13870,7 +15196,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="ZoneTexte 15"/>
+        <xdr:cNvPr id="16" name="ZoneTexte 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13934,7 +15266,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Flèche vers le bas 16"/>
+        <xdr:cNvPr id="17" name="Flèche vers le bas 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13991,7 +15329,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="ZoneTexte 18"/>
+        <xdr:cNvPr id="19" name="ZoneTexte 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14055,7 +15399,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Flèche vers le bas 19"/>
+        <xdr:cNvPr id="20" name="Flèche vers le bas 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14112,7 +15462,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Flèche vers le bas 21"/>
+        <xdr:cNvPr id="22" name="Flèche vers le bas 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14169,7 +15525,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="ZoneTexte 22"/>
+        <xdr:cNvPr id="23" name="ZoneTexte 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14233,7 +15595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Flèche vers le bas 23"/>
+        <xdr:cNvPr id="24" name="Flèche vers le bas 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14290,7 +15658,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Flèche vers le bas 24"/>
+        <xdr:cNvPr id="25" name="Flèche vers le bas 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14347,7 +15721,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="ZoneTexte 25"/>
+        <xdr:cNvPr id="26" name="ZoneTexte 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14411,7 +15791,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Flèche vers le bas 26"/>
+        <xdr:cNvPr id="27" name="Flèche vers le bas 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14473,7 +15859,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Flèche vers le bas 1"/>
+        <xdr:cNvPr id="2" name="Flèche vers le bas 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14530,7 +15922,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flèche vers le bas 2"/>
+        <xdr:cNvPr id="3" name="Flèche vers le bas 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14587,7 +15985,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvPr id="4" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14651,7 +16055,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Flèche vers le bas 4"/>
+        <xdr:cNvPr id="5" name="Flèche vers le bas 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14708,7 +16118,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvPr id="6" name="ZoneTexte 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14772,7 +16188,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Flèche vers le bas 6"/>
+        <xdr:cNvPr id="7" name="Flèche vers le bas 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14829,7 +16251,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvPr id="8" name="ZoneTexte 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14898,7 +16326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Flèche vers le bas 1"/>
+        <xdr:cNvPr id="2" name="Flèche vers le bas 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14955,7 +16389,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flèche vers le bas 2"/>
+        <xdr:cNvPr id="3" name="Flèche vers le bas 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15012,7 +16452,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvPr id="4" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15076,7 +16522,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Flèche vers le bas 4"/>
+        <xdr:cNvPr id="5" name="Flèche vers le bas 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15133,7 +16585,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvPr id="6" name="ZoneTexte 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15197,7 +16655,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Flèche vers le bas 12"/>
+        <xdr:cNvPr id="13" name="Flèche vers le bas 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15254,7 +16718,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="ZoneTexte 13"/>
+        <xdr:cNvPr id="14" name="ZoneTexte 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15318,7 +16788,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="ZoneTexte 14"/>
+        <xdr:cNvPr id="15" name="ZoneTexte 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15382,7 +16858,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Flèche vers le bas 15"/>
+        <xdr:cNvPr id="16" name="Flèche vers le bas 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15439,7 +16921,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="ZoneTexte 16"/>
+        <xdr:cNvPr id="17" name="ZoneTexte 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15503,7 +16991,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Flèche vers le bas 17"/>
+        <xdr:cNvPr id="18" name="Flèche vers le bas 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15560,7 +17054,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="ZoneTexte 18"/>
+        <xdr:cNvPr id="19" name="ZoneTexte 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15624,7 +17124,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Flèche vers le bas 22"/>
+        <xdr:cNvPr id="23" name="Flèche vers le bas 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15681,7 +17187,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="ZoneTexte 23"/>
+        <xdr:cNvPr id="24" name="ZoneTexte 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15750,7 +17262,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flèche vers le bas 2"/>
+        <xdr:cNvPr id="3" name="Flèche vers le bas 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15807,7 +17325,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Flèche vers le bas 4"/>
+        <xdr:cNvPr id="5" name="Flèche vers le bas 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15864,7 +17388,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvPr id="6" name="ZoneTexte 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15928,7 +17458,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Flèche vers le bas 6"/>
+        <xdr:cNvPr id="7" name="Flèche vers le bas 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15985,7 +17521,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvPr id="8" name="ZoneTexte 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16299,10 +17841,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -16320,7 +17862,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -16350,7 +17892,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M1" s="9" t="str">
         <f>B1</f>
@@ -16389,18 +17931,18 @@
         <v>MEUBLE</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -16463,15 +18005,15 @@
         <v>30</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -16534,15 +18076,15 @@
         <v>25</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="1">
         <v>30</v>
@@ -16605,10 +18147,10 @@
         <v>15</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -16676,10 +18218,10 @@
         <v>30</v>
       </c>
       <c r="X5" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y5" t="s">
         <v>218</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -16767,7 +18309,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C9" s="1">
         <v>15</v>
@@ -16834,7 +18376,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C10" s="1">
         <v>25</v>
@@ -16901,7 +18443,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="1">
         <v>25</v>
@@ -17130,7 +18672,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C16" s="1">
         <v>20</v>
@@ -17197,7 +18739,7 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C17" s="1">
         <v>30</v>
@@ -17262,7 +18804,7 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C18" s="1">
         <v>20</v>
@@ -17481,7 +19023,7 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C23" s="1">
         <v>25</v>
@@ -17546,7 +19088,7 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C24" s="1">
         <v>35</v>
@@ -17611,7 +19153,7 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C25" s="1">
         <v>15</v>
@@ -17829,7 +19371,7 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C30" s="1">
         <v>30</v>
@@ -17894,7 +19436,7 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C31" s="1">
         <v>40</v>
@@ -17959,7 +19501,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -18098,58 +19640,58 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="H43" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="L43" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M43" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N43" s="34"/>
       <c r="O43" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C44" s="1">
         <v>70</v>
@@ -18161,22 +19703,22 @@
         <v>5</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M44" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N44" s="35"/>
       <c r="O44" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C45" s="1">
         <v>60</v>
@@ -18188,22 +19730,22 @@
         <v>10</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M45" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N45" s="35"/>
       <c r="O45" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C46" s="1">
         <v>50</v>
@@ -18215,22 +19757,22 @@
         <v>15</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M46" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N46" s="35"/>
       <c r="O46" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C47" s="1">
         <v>40</v>
@@ -18242,22 +19784,22 @@
         <v>20</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M47" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N47" s="35"/>
       <c r="O47" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C48" s="1">
         <v>25</v>
@@ -18269,73 +19811,73 @@
         <v>30</v>
       </c>
       <c r="I48" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="M48" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N48" s="35"/>
       <c r="O48" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M49" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N49" s="35"/>
       <c r="O49" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C50" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M50" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N50" s="35"/>
       <c r="O50" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M51" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N51" s="35"/>
       <c r="O51" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C52" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="E52" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>223</v>
-      </c>
       <c r="M52" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N52" s="35"/>
       <c r="O52" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" s="1">
         <v>80</v>
@@ -18347,16 +19889,16 @@
         <v>5</v>
       </c>
       <c r="M53" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N53" s="35"/>
       <c r="O53" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C54" s="1">
         <v>75</v>
@@ -18368,16 +19910,16 @@
         <v>5</v>
       </c>
       <c r="M54" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N54" s="35"/>
       <c r="O54" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C55" s="1">
         <v>70</v>
@@ -18389,16 +19931,16 @@
         <v>5</v>
       </c>
       <c r="M55" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N55" s="35"/>
       <c r="O55" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C56" s="1">
         <v>60</v>
@@ -18410,22 +19952,22 @@
         <v>10</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M56" s="35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N56" s="35"/>
       <c r="O56" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C57" s="1">
         <v>45</v>
@@ -18437,62 +19979,62 @@
         <v>20</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I58" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C59" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I60" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C61" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="E61" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>223</v>
-      </c>
       <c r="I61" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C62" s="1">
         <v>90</v>
@@ -18506,7 +20048,7 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C63" s="1">
         <v>85</v>
@@ -18520,7 +20062,7 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C64" s="1">
         <v>80</v>
@@ -18534,7 +20076,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C65" s="1">
         <v>65</v>
@@ -18548,7 +20090,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C66" s="1">
         <v>65</v>
@@ -18562,26 +20104,26 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C70" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="E70" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C71" s="1">
         <v>90</v>
@@ -18595,7 +20137,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C72" s="1">
         <v>90</v>
@@ -18609,7 +20151,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C73" s="1">
         <v>90</v>
@@ -18623,7 +20165,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C74" s="1">
         <v>85</v>
@@ -18637,7 +20179,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C75" s="1">
         <v>80</v>
@@ -18651,26 +20193,26 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C77" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C79" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="E79" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C80" s="1">
         <v>90</v>
@@ -18684,7 +20226,7 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C81" s="1">
         <v>90</v>
@@ -18698,7 +20240,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C82" s="1">
         <v>90</v>
@@ -18712,7 +20254,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C83" s="1">
         <v>90</v>
@@ -18726,7 +20268,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C84" s="1">
         <v>90</v>
@@ -18761,7 +20303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18807,10 +20349,10 @@
         <v>99</v>
       </c>
       <c r="Q1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18827,7 +20369,7 @@
         <v>100</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18844,7 +20386,7 @@
         <v>101</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18861,7 +20403,7 @@
         <v>103</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18878,7 +20420,7 @@
         <v>104</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18895,7 +20437,7 @@
         <v>105</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18912,7 +20454,7 @@
         <v>106</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18929,7 +20471,7 @@
         <v>108</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18943,7 +20485,7 @@
         <v>110</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18957,7 +20499,7 @@
         <v>113</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18971,7 +20513,7 @@
         <v>114</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18985,7 +20527,7 @@
         <v>120</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18999,7 +20541,7 @@
         <v>121</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19013,7 +20555,7 @@
         <v>125</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19027,7 +20569,7 @@
         <v>126</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19041,7 +20583,7 @@
         <v>129</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19052,7 +20594,7 @@
         <v>130</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19063,7 +20605,7 @@
         <v>133</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19074,7 +20616,7 @@
         <v>136</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19092,7 +20634,7 @@
     </row>
     <row r="22" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N22" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19102,22 +20644,22 @@
     </row>
     <row r="24" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N24" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N25" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -19127,7 +20669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19166,16 +20708,16 @@
         <v>81</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>112</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19192,7 +20734,7 @@
         <v>107</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19209,7 +20751,7 @@
         <v>111</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19220,13 +20762,13 @@
         <v>58</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>118</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19243,7 +20785,7 @@
         <v>119</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19260,7 +20802,7 @@
         <v>123</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19271,13 +20813,13 @@
         <v>63</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>132</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19291,7 +20833,7 @@
         <v>127</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19305,7 +20847,7 @@
         <v>119</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19313,7 +20855,7 @@
         <v>128</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19321,7 +20863,7 @@
         <v>135</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19329,52 +20871,52 @@
         <v>138</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N13" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N14" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N15" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N16" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="14:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N17" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="14:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N18" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="14:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N19" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="14:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N20" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="14:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N21" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="14:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19389,11 +20931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19428,16 +20970,16 @@
         <v>90</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>98</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19454,7 +20996,7 @@
         <v>102</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19471,7 +21013,7 @@
         <v>104</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19485,7 +21027,7 @@
         <v>109</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19496,7 +21038,7 @@
         <v>115</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19507,7 +21049,7 @@
         <v>117</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19518,7 +21060,7 @@
         <v>122</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19529,7 +21071,7 @@
         <v>124</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19537,7 +21079,7 @@
         <v>131</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19545,7 +21087,7 @@
         <v>135</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19555,7 +21097,7 @@
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N12" s="6" t="s">
-        <v>140</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19565,32 +21107,32 @@
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N14" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N15" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N16" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="14:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N17" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="14:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N18" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="14:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N19" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -19603,14 +21145,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.28515625" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19620,67 +21162,67 @@
   <sheetData>
     <row r="1" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>251</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.25"/>
@@ -19692,14 +21234,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19710,45 +21252,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>353</v>
       </c>
       <c r="F3" s="20"/>
     </row>
@@ -19757,75 +21299,75 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="F4" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="14"/>
       <c r="D5" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>358</v>
       </c>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" t="s">
         <v>303</v>
-      </c>
-      <c r="B7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" t="s">
         <v>359</v>
-      </c>
-      <c r="B8" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
         <v>361</v>
-      </c>
-      <c r="B9" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19839,49 +21381,49 @@
     </row>
     <row r="15" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>368</v>
-      </c>
       <c r="F15" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>
       <c r="D16" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="F16" s="22" t="s">
         <v>373</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
       <c r="D17" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B18" t="s">
         <v>377</v>
-      </c>
-      <c r="B18" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19895,29 +21437,29 @@
     </row>
     <row r="20" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>379</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>380</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>368</v>
-      </c>
       <c r="F20" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
       <c r="D21" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19931,29 +21473,29 @@
     </row>
     <row r="23" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>382</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>383</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>368</v>
-      </c>
       <c r="F23" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14"/>
       <c r="D24" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19967,29 +21509,29 @@
     </row>
     <row r="26" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>385</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>386</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>368</v>
-      </c>
       <c r="F26" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="14"/>
       <c r="D27" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -20000,7 +21542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -20017,31 +21559,31 @@
   <sheetData>
     <row r="1" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -20050,13 +21592,13 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="F3" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20064,29 +21606,29 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="F4" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" t="s">
         <v>303</v>
-      </c>
-      <c r="B7" t="s">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -20097,7 +21639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -20114,29 +21656,29 @@
   <sheetData>
     <row r="1" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>305</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>306</v>
       </c>
       <c r="I2" s="14"/>
     </row>
@@ -20144,17 +21686,17 @@
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="D3" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>307</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>308</v>
       </c>
       <c r="I3" s="14"/>
     </row>
@@ -20163,45 +21705,45 @@
       <c r="B4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>309</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>310</v>
       </c>
       <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>319</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>311</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -20212,7 +21754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -20229,34 +21771,34 @@
   <sheetData>
     <row r="1" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="22" t="s">
         <v>338</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20264,21 +21806,21 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
